--- a/cycle/daily_limit_up_market/20250110.xlsx
+++ b/cycle/daily_limit_up_market/20250110.xlsx
@@ -598,34 +598,34 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>002534</t>
+          <t>300344</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>西子洁能</t>
+          <t>立方数科</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>10.00918292999268</v>
+        <v>19.90950202941895</v>
       </c>
       <c r="F3" t="n">
-        <v>11.98</v>
+        <v>5.3</v>
       </c>
       <c r="G3" t="n">
-        <v>50046210</v>
+        <v>150783590</v>
       </c>
       <c r="H3" t="n">
-        <v>8755192679.620001</v>
+        <v>3387820372.3</v>
       </c>
       <c r="I3" t="n">
-        <v>8855681554.559999</v>
+        <v>3401044004.8</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5716174840927124</v>
+        <v>4.45075511932373</v>
       </c>
       <c r="K3" t="n">
-        <v>105539008</v>
+        <v>213227299</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>电源设备</t>
+          <t>软件开发</t>
         </is>
       </c>
     </row>
@@ -663,34 +663,34 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>300344</t>
+          <t>002534</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>立方数科</t>
+          <t>西子洁能</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>19.90950202941895</v>
+        <v>10.00918292999268</v>
       </c>
       <c r="F4" t="n">
-        <v>5.3</v>
+        <v>11.98</v>
       </c>
       <c r="G4" t="n">
-        <v>150783590</v>
+        <v>50046210</v>
       </c>
       <c r="H4" t="n">
-        <v>3387820372.3</v>
+        <v>8755192679.620001</v>
       </c>
       <c r="I4" t="n">
-        <v>3401044004.8</v>
+        <v>8855681554.559999</v>
       </c>
       <c r="J4" t="n">
-        <v>4.45075511932373</v>
+        <v>0.5716174840927124</v>
       </c>
       <c r="K4" t="n">
-        <v>213227299</v>
+        <v>105539008</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -715,7 +715,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>软件开发</t>
+          <t>电源设备</t>
         </is>
       </c>
     </row>
@@ -18848,43 +18848,43 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>001359</t>
+          <t>688692</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>平安电工</t>
+          <t>达梦数据</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-1.658310890197754</v>
+        <v>0.5210673213005066</v>
       </c>
       <c r="F66" t="n">
-        <v>25.5</v>
+        <v>335.67</v>
       </c>
       <c r="G66" t="n">
-        <v>28.52</v>
+        <v>400.72</v>
       </c>
       <c r="H66" t="n">
-        <v>82039633</v>
+        <v>261701669</v>
       </c>
       <c r="I66" t="n">
-        <v>1182690000</v>
+        <v>5102184000</v>
       </c>
       <c r="J66" t="n">
-        <v>4730330707.5</v>
+        <v>25510920000</v>
       </c>
       <c r="K66" t="n">
-        <v>6.758721351623535</v>
+        <v>5.030421257019043</v>
       </c>
       <c r="L66" t="n">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M66" s="2" t="n">
-        <v>45462</v>
+        <v>45455</v>
       </c>
       <c r="N66" s="2" t="n">
-        <v>45379</v>
+        <v>45455</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
@@ -18896,7 +18896,7 @@
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>非金属材</t>
+          <t>软件开发</t>
         </is>
       </c>
     </row>
@@ -18909,43 +18909,43 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>001379</t>
+          <t>300784</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>腾达科技</t>
+          <t>利安科技</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>-3.732809543609619</v>
+        <v>-0.5692600011825562</v>
       </c>
       <c r="F67" t="n">
-        <v>19.6</v>
+        <v>52.4</v>
       </c>
       <c r="G67" t="n">
-        <v>22.4</v>
+        <v>63.24</v>
       </c>
       <c r="H67" t="n">
-        <v>44067580</v>
+        <v>90838448</v>
       </c>
       <c r="I67" t="n">
-        <v>980000000.0000001</v>
+        <v>736744000</v>
       </c>
       <c r="J67" t="n">
-        <v>3920000000</v>
+        <v>2946850240</v>
       </c>
       <c r="K67" t="n">
-        <v>4.398320198059082</v>
+        <v>11.93864154815674</v>
       </c>
       <c r="L67" t="n">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="M67" s="2" t="n">
-        <v>45462</v>
+        <v>45450</v>
       </c>
       <c r="N67" s="2" t="n">
-        <v>45310</v>
+        <v>45450</v>
       </c>
       <c r="O67" t="n">
         <v>0</v>
@@ -18957,7 +18957,7 @@
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>塑料制品</t>
         </is>
       </c>
     </row>
@@ -18970,43 +18970,43 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>001387</t>
+          <t>301392</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>雪祺电气</t>
+          <t>汇成真空</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>-6.598984241485596</v>
+        <v>4.768438816070557</v>
       </c>
       <c r="F68" t="n">
-        <v>12.88</v>
+        <v>61.08</v>
       </c>
       <c r="G68" t="n">
-        <v>15.17</v>
+        <v>69.95999999999999</v>
       </c>
       <c r="H68" t="n">
-        <v>64701390</v>
+        <v>235122597</v>
       </c>
       <c r="I68" t="n">
-        <v>572477360</v>
+        <v>1374300000</v>
       </c>
       <c r="J68" t="n">
-        <v>2289909440</v>
+        <v>6108000000</v>
       </c>
       <c r="K68" t="n">
-        <v>11.0587215423584</v>
+        <v>16.92196846008301</v>
       </c>
       <c r="L68" t="n">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="M68" s="2" t="n">
-        <v>45462</v>
+        <v>45448</v>
       </c>
       <c r="N68" s="2" t="n">
-        <v>45302</v>
+        <v>45448</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -19018,7 +19018,7 @@
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>家电行业</t>
+          <t>专用设备</t>
         </is>
       </c>
     </row>
@@ -19031,55 +19031,55 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>001389</t>
+          <t>920002</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>广合科技</t>
+          <t>XD万达轴</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>-5.765798091888428</v>
+        <v>-3.136450529098511</v>
       </c>
       <c r="F69" t="n">
-        <v>52.79</v>
+        <v>66.09</v>
       </c>
       <c r="G69" t="n">
-        <v>61.62</v>
+        <v>88.69</v>
       </c>
       <c r="H69" t="n">
-        <v>420929040</v>
+        <v>76820991</v>
       </c>
       <c r="I69" t="n">
-        <v>2009715300</v>
+        <v>380017500</v>
       </c>
       <c r="J69" t="n">
-        <v>22449739772.32</v>
+        <v>2148065110.8</v>
       </c>
       <c r="K69" t="n">
-        <v>20.39194107055664</v>
+        <v>19.24399948120117</v>
       </c>
       <c r="L69" t="n">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="M69" s="2" t="n">
-        <v>45462</v>
+        <v>45442</v>
       </c>
       <c r="N69" s="2" t="n">
-        <v>45384</v>
+        <v>45442</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>2/1</t>
+          <t>0/0</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>电子元件</t>
+          <t>通用设备</t>
         </is>
       </c>
     </row>
@@ -19092,43 +19092,43 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>300784</t>
+          <t>301596</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>利安科技</t>
+          <t>瑞迪智驱</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>-0.5692600011825562</v>
+        <v>4.787123680114746</v>
       </c>
       <c r="F70" t="n">
-        <v>52.4</v>
+        <v>100.91</v>
       </c>
       <c r="G70" t="n">
-        <v>63.24</v>
+        <v>115.56</v>
       </c>
       <c r="H70" t="n">
-        <v>90838448</v>
+        <v>324929024</v>
       </c>
       <c r="I70" t="n">
-        <v>736744000</v>
+        <v>1390491161.38</v>
       </c>
       <c r="J70" t="n">
-        <v>2946850240</v>
+        <v>5561964645.52</v>
       </c>
       <c r="K70" t="n">
-        <v>11.93864154815674</v>
+        <v>22.93749237060547</v>
       </c>
       <c r="L70" t="n">
-        <v>140</v>
+        <v>166</v>
       </c>
       <c r="M70" s="2" t="n">
-        <v>45462</v>
+        <v>45425</v>
       </c>
       <c r="N70" s="2" t="n">
-        <v>45450</v>
+        <v>45425</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -19140,7 +19140,7 @@
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>塑料制品</t>
+          <t>通用设备</t>
         </is>
       </c>
     </row>
@@ -19153,43 +19153,43 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>301392</t>
+          <t>688530</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>汇成真空</t>
+          <t>欧莱新材</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>4.768438816070557</v>
+        <v>-2.75545334815979</v>
       </c>
       <c r="F71" t="n">
-        <v>61.08</v>
+        <v>16.94</v>
       </c>
       <c r="G71" t="n">
-        <v>69.95999999999999</v>
+        <v>20.9</v>
       </c>
       <c r="H71" t="n">
-        <v>235122597</v>
+        <v>20429113</v>
       </c>
       <c r="I71" t="n">
-        <v>1374300000</v>
+        <v>542231884.0400001</v>
       </c>
       <c r="J71" t="n">
-        <v>6108000000</v>
+        <v>2711159318.56</v>
       </c>
       <c r="K71" t="n">
-        <v>16.92196846008301</v>
+        <v>3.642760515213013</v>
       </c>
       <c r="L71" t="n">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="M71" s="2" t="n">
-        <v>45462</v>
+        <v>45421</v>
       </c>
       <c r="N71" s="2" t="n">
-        <v>45448</v>
+        <v>45421</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
@@ -19201,7 +19201,7 @@
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>专用设备</t>
+          <t>半导体</t>
         </is>
       </c>
     </row>
@@ -19214,43 +19214,43 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>301502</t>
+          <t>301539</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>华阳智能</t>
+          <t>宏鑫科技</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-6.450127124786377</v>
+        <v>-2.134831428527832</v>
       </c>
       <c r="F72" t="n">
-        <v>40.61</v>
+        <v>17.42</v>
       </c>
       <c r="G72" t="n">
-        <v>52.09</v>
+        <v>21.36</v>
       </c>
       <c r="H72" t="n">
-        <v>57830907</v>
+        <v>20013239</v>
       </c>
       <c r="I72" t="n">
-        <v>579545310</v>
+        <v>644540000.0000001</v>
       </c>
       <c r="J72" t="n">
-        <v>2318160935</v>
+        <v>2578160000</v>
       </c>
       <c r="K72" t="n">
-        <v>9.692298889160156</v>
+        <v>3.043094635009766</v>
       </c>
       <c r="L72" t="n">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="M72" s="2" t="n">
-        <v>45462</v>
+        <v>45397</v>
       </c>
       <c r="N72" s="2" t="n">
-        <v>45324</v>
+        <v>45397</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -19262,7 +19262,7 @@
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>电机</t>
+          <t>汽车零部</t>
         </is>
       </c>
     </row>
@@ -19275,43 +19275,43 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>301536</t>
+          <t>688691</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>星宸科技</t>
+          <t>灿芯股份</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-7.94066333770752</v>
+        <v>2.98401927947998</v>
       </c>
       <c r="F73" t="n">
-        <v>73.84999999999999</v>
+        <v>72.81999999999999</v>
       </c>
       <c r="G73" t="n">
-        <v>96.26000000000001</v>
+        <v>84.84999999999999</v>
       </c>
       <c r="H73" t="n">
-        <v>739258688</v>
+        <v>407186112</v>
       </c>
       <c r="I73" t="n">
-        <v>2798572852.95</v>
+        <v>1856910000</v>
       </c>
       <c r="J73" t="n">
-        <v>31095281000</v>
+        <v>8738400000</v>
       </c>
       <c r="K73" t="n">
-        <v>25.34646034240723</v>
+        <v>21.0899486541748</v>
       </c>
       <c r="L73" t="n">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="M73" s="2" t="n">
-        <v>45462</v>
+        <v>45393</v>
       </c>
       <c r="N73" s="2" t="n">
-        <v>45379</v>
+        <v>45393</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
@@ -19336,43 +19336,43 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>301538</t>
+          <t>301587</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>骏鼎达</t>
+          <t>中瑞股份</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-3.107344627380371</v>
+        <v>-1.439162611961365</v>
       </c>
       <c r="F74" t="n">
-        <v>68.59999999999999</v>
+        <v>22.6</v>
       </c>
       <c r="G74" t="n">
-        <v>84.95999999999999</v>
+        <v>27.52</v>
       </c>
       <c r="H74" t="n">
-        <v>36174408</v>
+        <v>67725324</v>
       </c>
       <c r="I74" t="n">
-        <v>960399999.9999999</v>
+        <v>690334424.6</v>
       </c>
       <c r="J74" t="n">
-        <v>3841600000</v>
+        <v>3329613704</v>
       </c>
       <c r="K74" t="n">
-        <v>3.694678544998169</v>
+        <v>9.513506889343262</v>
       </c>
       <c r="L74" t="n">
-        <v>140</v>
+        <v>188</v>
       </c>
       <c r="M74" s="2" t="n">
-        <v>45462</v>
+        <v>45390</v>
       </c>
       <c r="N74" s="2" t="n">
-        <v>45371</v>
+        <v>45390</v>
       </c>
       <c r="O74" t="n">
         <v>0</v>
@@ -19384,7 +19384,7 @@
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>塑料制品</t>
+          <t>电池</t>
         </is>
       </c>
     </row>
@@ -19397,55 +19397,55 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>301539</t>
+          <t>001389</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>宏鑫科技</t>
+          <t>广合科技</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>-2.134831428527832</v>
+        <v>-5.765798091888428</v>
       </c>
       <c r="F75" t="n">
-        <v>17.42</v>
+        <v>52.79</v>
       </c>
       <c r="G75" t="n">
-        <v>21.36</v>
+        <v>61.62</v>
       </c>
       <c r="H75" t="n">
-        <v>20013239</v>
+        <v>420929040</v>
       </c>
       <c r="I75" t="n">
-        <v>644540000.0000001</v>
+        <v>2009715300</v>
       </c>
       <c r="J75" t="n">
-        <v>2578160000</v>
+        <v>22449739772.32</v>
       </c>
       <c r="K75" t="n">
-        <v>3.043094635009766</v>
+        <v>20.39194107055664</v>
       </c>
       <c r="L75" t="n">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="M75" s="2" t="n">
-        <v>45462</v>
+        <v>45384</v>
       </c>
       <c r="N75" s="2" t="n">
-        <v>45397</v>
+        <v>45384</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>2/1</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>汽车零部</t>
+          <t>电子元件</t>
         </is>
       </c>
     </row>
@@ -19458,43 +19458,43 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>301567</t>
+          <t>001359</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>贝隆精密</t>
+          <t>平安电工</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>-3.432438850402832</v>
+        <v>-1.658310890197754</v>
       </c>
       <c r="F76" t="n">
-        <v>39.95</v>
+        <v>25.5</v>
       </c>
       <c r="G76" t="n">
-        <v>49.64</v>
+        <v>28.52</v>
       </c>
       <c r="H76" t="n">
-        <v>27755791</v>
+        <v>82039633</v>
       </c>
       <c r="I76" t="n">
-        <v>719100000</v>
+        <v>1182690000</v>
       </c>
       <c r="J76" t="n">
-        <v>2876400000</v>
+        <v>4730330707.5</v>
       </c>
       <c r="K76" t="n">
-        <v>3.778333425521851</v>
+        <v>6.758721351623535</v>
       </c>
       <c r="L76" t="n">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="M76" s="2" t="n">
-        <v>45462</v>
+        <v>45379</v>
       </c>
       <c r="N76" s="2" t="n">
-        <v>45307</v>
+        <v>45379</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
@@ -19506,7 +19506,7 @@
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>消费电子</t>
+          <t>非金属材</t>
         </is>
       </c>
     </row>
@@ -19519,43 +19519,43 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>301577</t>
+          <t>301536</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>美信科技</t>
+          <t>星宸科技</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-5.694915294647217</v>
+        <v>-7.94066333770752</v>
       </c>
       <c r="F77" t="n">
-        <v>55.64</v>
+        <v>73.84999999999999</v>
       </c>
       <c r="G77" t="n">
-        <v>70.8</v>
+        <v>96.26000000000001</v>
       </c>
       <c r="H77" t="n">
-        <v>99422465</v>
+        <v>739258688</v>
       </c>
       <c r="I77" t="n">
-        <v>617334090.36</v>
+        <v>2798572852.95</v>
       </c>
       <c r="J77" t="n">
-        <v>2462626400</v>
+        <v>31095281000</v>
       </c>
       <c r="K77" t="n">
-        <v>15.66991138458252</v>
+        <v>25.34646034240723</v>
       </c>
       <c r="L77" t="n">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="M77" s="2" t="n">
-        <v>45462</v>
+        <v>45379</v>
       </c>
       <c r="N77" s="2" t="n">
-        <v>45315</v>
+        <v>45379</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -19567,7 +19567,7 @@
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>电子元件</t>
+          <t>半导体</t>
         </is>
       </c>
     </row>
@@ -19580,43 +19580,43 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>301587</t>
+          <t>301538</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>中瑞股份</t>
+          <t>骏鼎达</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>-1.439162611961365</v>
+        <v>-3.107344627380371</v>
       </c>
       <c r="F78" t="n">
-        <v>22.6</v>
+        <v>68.59999999999999</v>
       </c>
       <c r="G78" t="n">
-        <v>27.52</v>
+        <v>84.95999999999999</v>
       </c>
       <c r="H78" t="n">
-        <v>67725324</v>
+        <v>36174408</v>
       </c>
       <c r="I78" t="n">
-        <v>690334424.6</v>
+        <v>960399999.9999999</v>
       </c>
       <c r="J78" t="n">
-        <v>3329613704</v>
+        <v>3841600000</v>
       </c>
       <c r="K78" t="n">
-        <v>9.513506889343262</v>
+        <v>3.694678544998169</v>
       </c>
       <c r="L78" t="n">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="M78" s="2" t="n">
-        <v>45462</v>
+        <v>45371</v>
       </c>
       <c r="N78" s="2" t="n">
-        <v>45390</v>
+        <v>45371</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -19628,7 +19628,7 @@
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>电池</t>
+          <t>塑料制品</t>
         </is>
       </c>
     </row>
@@ -19641,43 +19641,43 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>301588</t>
+          <t>603344</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>美新科技</t>
+          <t>星德胜</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>0.5678884983062744</v>
+        <v>-1.113585710525513</v>
       </c>
       <c r="F79" t="n">
-        <v>19.48</v>
+        <v>22.2</v>
       </c>
       <c r="G79" t="n">
-        <v>23.24</v>
+        <v>24.7</v>
       </c>
       <c r="H79" t="n">
-        <v>51328160</v>
+        <v>47872582</v>
       </c>
       <c r="I79" t="n">
-        <v>463108792.96</v>
+        <v>1079646939</v>
       </c>
       <c r="J79" t="n">
-        <v>2315543847.92</v>
+        <v>4318587756</v>
       </c>
       <c r="K79" t="n">
-        <v>10.96466732025146</v>
+        <v>4.408990383148193</v>
       </c>
       <c r="L79" t="n">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="M79" s="2" t="n">
-        <v>45462</v>
+        <v>45371</v>
       </c>
       <c r="N79" s="2" t="n">
-        <v>45364</v>
+        <v>45371</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
@@ -19689,7 +19689,7 @@
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>家用轻工</t>
+          <t>电机</t>
         </is>
       </c>
     </row>
@@ -19702,43 +19702,43 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>301589</t>
+          <t>301588</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>诺瓦星云</t>
+          <t>美新科技</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>-4.672051906585693</v>
+        <v>0.5678884983062744</v>
       </c>
       <c r="F80" t="n">
-        <v>158.13</v>
+        <v>19.48</v>
       </c>
       <c r="G80" t="n">
-        <v>199.06</v>
+        <v>23.24</v>
       </c>
       <c r="H80" t="n">
-        <v>101925193</v>
+        <v>51328160</v>
       </c>
       <c r="I80" t="n">
-        <v>2923760448</v>
+        <v>463108792.96</v>
       </c>
       <c r="J80" t="n">
-        <v>14618802240</v>
+        <v>2315543847.92</v>
       </c>
       <c r="K80" t="n">
-        <v>3.39715838432312</v>
+        <v>10.96466732025146</v>
       </c>
       <c r="L80" t="n">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="M80" s="2" t="n">
-        <v>45462</v>
+        <v>45364</v>
       </c>
       <c r="N80" s="2" t="n">
-        <v>45330</v>
+        <v>45364</v>
       </c>
       <c r="O80" t="n">
         <v>0</v>
@@ -19750,7 +19750,7 @@
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>计算机设</t>
+          <t>家用轻工</t>
         </is>
       </c>
     </row>
@@ -19763,43 +19763,43 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>301591</t>
+          <t>688695</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>肯特股份</t>
+          <t>中创股份</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>-0.7569141387939453</v>
+        <v>-1.477312684059143</v>
       </c>
       <c r="F81" t="n">
-        <v>34.09</v>
+        <v>28.01</v>
       </c>
       <c r="G81" t="n">
-        <v>41.22</v>
+        <v>34.12</v>
       </c>
       <c r="H81" t="n">
-        <v>72979951</v>
+        <v>19719727</v>
       </c>
       <c r="I81" t="n">
-        <v>716912700.0000001</v>
+        <v>536015073.61</v>
       </c>
       <c r="J81" t="n">
-        <v>2867650800</v>
+        <v>2382289097.78</v>
       </c>
       <c r="K81" t="n">
-        <v>9.871189117431641</v>
+        <v>3.601712942123413</v>
       </c>
       <c r="L81" t="n">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="M81" s="2" t="n">
-        <v>45462</v>
+        <v>45364</v>
       </c>
       <c r="N81" s="2" t="n">
-        <v>45350</v>
+        <v>45364</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
@@ -19811,7 +19811,7 @@
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>塑料制品</t>
+          <t>软件开发</t>
         </is>
       </c>
     </row>
@@ -19824,43 +19824,43 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>301596</t>
+          <t>603341</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>瑞迪智驱</t>
+          <t>龙旗科技</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>4.787123680114746</v>
+        <v>-4.060039520263672</v>
       </c>
       <c r="F82" t="n">
-        <v>100.91</v>
+        <v>38.99</v>
       </c>
       <c r="G82" t="n">
-        <v>115.56</v>
+        <v>44.7</v>
       </c>
       <c r="H82" t="n">
-        <v>324929024</v>
+        <v>160343885</v>
       </c>
       <c r="I82" t="n">
-        <v>1390491161.38</v>
+        <v>1871520000</v>
       </c>
       <c r="J82" t="n">
-        <v>5561964645.52</v>
+        <v>18134114250.56</v>
       </c>
       <c r="K82" t="n">
-        <v>22.93749237060547</v>
+        <v>8.397274971008301</v>
       </c>
       <c r="L82" t="n">
-        <v>140</v>
+        <v>212</v>
       </c>
       <c r="M82" s="2" t="n">
-        <v>45462</v>
+        <v>45352</v>
       </c>
       <c r="N82" s="2" t="n">
-        <v>45425</v>
+        <v>45352</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -19872,7 +19872,7 @@
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>消费电子</t>
         </is>
       </c>
     </row>
@@ -19885,43 +19885,43 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>601033</t>
+          <t>301591</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>永兴股份</t>
+          <t>肯特股份</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-1.762114524841309</v>
+        <v>-0.7569141387939453</v>
       </c>
       <c r="F83" t="n">
-        <v>13.38</v>
+        <v>34.09</v>
       </c>
       <c r="G83" t="n">
-        <v>14.98</v>
+        <v>41.22</v>
       </c>
       <c r="H83" t="n">
-        <v>34005989</v>
+        <v>72979951</v>
       </c>
       <c r="I83" t="n">
-        <v>2007000000</v>
+        <v>716912700.0000001</v>
       </c>
       <c r="J83" t="n">
-        <v>12042000000</v>
+        <v>2867650800</v>
       </c>
       <c r="K83" t="n">
-        <v>1.67888605594635</v>
+        <v>9.871189117431641</v>
       </c>
       <c r="L83" t="n">
-        <v>140</v>
+        <v>214</v>
       </c>
       <c r="M83" s="2" t="n">
-        <v>45462</v>
+        <v>45350</v>
       </c>
       <c r="N83" s="2" t="n">
-        <v>45309</v>
+        <v>45350</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -19933,7 +19933,7 @@
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>环保行业</t>
+          <t>塑料制品</t>
         </is>
       </c>
     </row>
@@ -19946,43 +19946,43 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>603082</t>
+          <t>301589</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>北自科技</t>
+          <t>诺瓦星云</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>0.3336366415023804</v>
+        <v>-4.672051906585693</v>
       </c>
       <c r="F84" t="n">
-        <v>33.08</v>
+        <v>158.13</v>
       </c>
       <c r="G84" t="n">
-        <v>36.27</v>
+        <v>199.06</v>
       </c>
       <c r="H84" t="n">
-        <v>94784280</v>
+        <v>101925193</v>
       </c>
       <c r="I84" t="n">
-        <v>1073297801.6</v>
+        <v>2923760448</v>
       </c>
       <c r="J84" t="n">
-        <v>5366487122.44</v>
+        <v>14618802240</v>
       </c>
       <c r="K84" t="n">
-        <v>8.684927940368652</v>
+        <v>3.39715838432312</v>
       </c>
       <c r="L84" t="n">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="M84" s="2" t="n">
-        <v>45462</v>
+        <v>45330</v>
       </c>
       <c r="N84" s="2" t="n">
-        <v>45321</v>
+        <v>45330</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -19994,7 +19994,7 @@
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>计算机设</t>
         </is>
       </c>
     </row>
@@ -20007,43 +20007,43 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>603312</t>
+          <t>688584</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>西典新能</t>
+          <t>上海合晶</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>-0.7203257083892822</v>
+        <v>-2.467105388641357</v>
       </c>
       <c r="F85" t="n">
-        <v>31.7</v>
+        <v>17.79</v>
       </c>
       <c r="G85" t="n">
-        <v>35.12</v>
+        <v>21.89</v>
       </c>
       <c r="H85" t="n">
-        <v>19748315</v>
+        <v>44229706</v>
       </c>
       <c r="I85" t="n">
-        <v>1105904015.4</v>
+        <v>1001302909.47</v>
       </c>
       <c r="J85" t="n">
-        <v>5122720000</v>
+        <v>11838504082.08</v>
       </c>
       <c r="K85" t="n">
-        <v>1.77459728717804</v>
+        <v>4.289659023284912</v>
       </c>
       <c r="L85" t="n">
-        <v>140</v>
+        <v>222</v>
       </c>
       <c r="M85" s="2" t="n">
-        <v>45462</v>
+        <v>45330</v>
       </c>
       <c r="N85" s="2" t="n">
-        <v>45302</v>
+        <v>45330</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -20055,7 +20055,7 @@
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>电网设备</t>
+          <t>半导体</t>
         </is>
       </c>
     </row>
@@ -20068,43 +20068,43 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>603325</t>
+          <t>688709</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>博隆技术</t>
+          <t>成都华微</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>4.442896842956543</v>
+        <v>-3.77622389793396</v>
       </c>
       <c r="F86" t="n">
-        <v>74.98999999999999</v>
+        <v>27.52</v>
       </c>
       <c r="G86" t="n">
-        <v>78.98</v>
+        <v>34.32</v>
       </c>
       <c r="H86" t="n">
-        <v>87512963</v>
+        <v>203387513</v>
       </c>
       <c r="I86" t="n">
-        <v>2099420040</v>
+        <v>2122265729.28</v>
       </c>
       <c r="J86" t="n">
-        <v>4999583300</v>
+        <v>17526030100.48</v>
       </c>
       <c r="K86" t="n">
-        <v>4.238062381744385</v>
+        <v>9.256889343261719</v>
       </c>
       <c r="L86" t="n">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c r="M86" s="2" t="n">
-        <v>45462</v>
+        <v>45329</v>
       </c>
       <c r="N86" s="2" t="n">
-        <v>45301</v>
+        <v>45329</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -20116,7 +20116,7 @@
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>通用设备</t>
+          <t>半导体</t>
         </is>
       </c>
     </row>
@@ -20129,43 +20129,43 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>603341</t>
+          <t>301502</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>龙旗科技</t>
+          <t>华阳智能</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>-4.060039520263672</v>
+        <v>-6.450127124786377</v>
       </c>
       <c r="F87" t="n">
-        <v>38.99</v>
+        <v>40.61</v>
       </c>
       <c r="G87" t="n">
-        <v>44.7</v>
+        <v>52.09</v>
       </c>
       <c r="H87" t="n">
-        <v>160343885</v>
+        <v>57830907</v>
       </c>
       <c r="I87" t="n">
-        <v>1871520000</v>
+        <v>579545310</v>
       </c>
       <c r="J87" t="n">
-        <v>18134114250.56</v>
+        <v>2318160935</v>
       </c>
       <c r="K87" t="n">
-        <v>8.397274971008301</v>
+        <v>9.692298889160156</v>
       </c>
       <c r="L87" t="n">
-        <v>140</v>
+        <v>226</v>
       </c>
       <c r="M87" s="2" t="n">
-        <v>45462</v>
+        <v>45324</v>
       </c>
       <c r="N87" s="2" t="n">
-        <v>45352</v>
+        <v>45324</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -20177,7 +20177,7 @@
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>消费电子</t>
+          <t>电机</t>
         </is>
       </c>
     </row>
@@ -20190,43 +20190,43 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>603344</t>
+          <t>603082</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>星德胜</t>
+          <t>北自科技</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>-1.113585710525513</v>
+        <v>0.3336366415023804</v>
       </c>
       <c r="F88" t="n">
-        <v>22.2</v>
+        <v>33.08</v>
       </c>
       <c r="G88" t="n">
-        <v>24.7</v>
+        <v>36.27</v>
       </c>
       <c r="H88" t="n">
-        <v>47872582</v>
+        <v>94784280</v>
       </c>
       <c r="I88" t="n">
-        <v>1079646939</v>
+        <v>1073297801.6</v>
       </c>
       <c r="J88" t="n">
-        <v>4318587756</v>
+        <v>5366487122.44</v>
       </c>
       <c r="K88" t="n">
-        <v>4.408990383148193</v>
+        <v>8.684927940368652</v>
       </c>
       <c r="L88" t="n">
-        <v>140</v>
+        <v>229</v>
       </c>
       <c r="M88" s="2" t="n">
-        <v>45462</v>
+        <v>45321</v>
       </c>
       <c r="N88" s="2" t="n">
-        <v>45371</v>
+        <v>45321</v>
       </c>
       <c r="O88" t="n">
         <v>0</v>
@@ -20238,7 +20238,7 @@
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>电机</t>
+          <t>通用设备</t>
         </is>
       </c>
     </row>
@@ -20251,40 +20251,40 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>603375</t>
+          <t>301577</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>盛景微</t>
+          <t>美信科技</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-3.263927936553955</v>
+        <v>-5.694915294647217</v>
       </c>
       <c r="F89" t="n">
-        <v>34.38</v>
+        <v>55.64</v>
       </c>
       <c r="G89" t="n">
-        <v>39.09</v>
+        <v>70.8</v>
       </c>
       <c r="H89" t="n">
-        <v>58253432</v>
+        <v>99422465</v>
       </c>
       <c r="I89" t="n">
-        <v>692184022.9200001</v>
+        <v>617334090.36</v>
       </c>
       <c r="J89" t="n">
-        <v>3460920011.46</v>
+        <v>2462626400</v>
       </c>
       <c r="K89" t="n">
-        <v>8.191922187805176</v>
+        <v>15.66991138458252</v>
       </c>
       <c r="L89" t="n">
-        <v>140</v>
+        <v>233</v>
       </c>
       <c r="M89" s="2" t="n">
-        <v>45462</v>
+        <v>45315</v>
       </c>
       <c r="N89" s="2" t="n">
         <v>45315</v>
@@ -20312,43 +20312,43 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>688530</t>
+          <t>603375</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>欧莱新材</t>
+          <t>盛景微</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>-2.75545334815979</v>
+        <v>-3.263927936553955</v>
       </c>
       <c r="F90" t="n">
-        <v>16.94</v>
+        <v>34.38</v>
       </c>
       <c r="G90" t="n">
-        <v>20.9</v>
+        <v>39.09</v>
       </c>
       <c r="H90" t="n">
-        <v>20429113</v>
+        <v>58253432</v>
       </c>
       <c r="I90" t="n">
-        <v>542231884.0400001</v>
+        <v>692184022.9200001</v>
       </c>
       <c r="J90" t="n">
-        <v>2711159318.56</v>
+        <v>3460920011.46</v>
       </c>
       <c r="K90" t="n">
-        <v>3.642760515213013</v>
+        <v>8.191922187805176</v>
       </c>
       <c r="L90" t="n">
-        <v>140</v>
+        <v>233</v>
       </c>
       <c r="M90" s="2" t="n">
-        <v>45462</v>
+        <v>45315</v>
       </c>
       <c r="N90" s="2" t="n">
-        <v>45421</v>
+        <v>45315</v>
       </c>
       <c r="O90" t="n">
         <v>0</v>
@@ -20360,7 +20360,7 @@
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>半导体</t>
+          <t>电子元件</t>
         </is>
       </c>
     </row>
@@ -20373,43 +20373,43 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>688584</t>
+          <t>001379</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>上海合晶</t>
+          <t>腾达科技</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>-2.467105388641357</v>
+        <v>-3.732809543609619</v>
       </c>
       <c r="F91" t="n">
-        <v>17.79</v>
+        <v>19.6</v>
       </c>
       <c r="G91" t="n">
-        <v>21.89</v>
+        <v>22.4</v>
       </c>
       <c r="H91" t="n">
-        <v>44229706</v>
+        <v>44067580</v>
       </c>
       <c r="I91" t="n">
-        <v>1001302909.47</v>
+        <v>980000000.0000001</v>
       </c>
       <c r="J91" t="n">
-        <v>11838504082.08</v>
+        <v>3920000000</v>
       </c>
       <c r="K91" t="n">
-        <v>4.289659023284912</v>
+        <v>4.398320198059082</v>
       </c>
       <c r="L91" t="n">
-        <v>140</v>
+        <v>236</v>
       </c>
       <c r="M91" s="2" t="n">
-        <v>45462</v>
+        <v>45310</v>
       </c>
       <c r="N91" s="2" t="n">
-        <v>45330</v>
+        <v>45310</v>
       </c>
       <c r="O91" t="n">
         <v>0</v>
@@ -20421,7 +20421,7 @@
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>半导体</t>
+          <t>通用设备</t>
         </is>
       </c>
     </row>
@@ -20434,43 +20434,43 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>688691</t>
+          <t>601033</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>灿芯股份</t>
+          <t>永兴股份</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>2.98401927947998</v>
+        <v>-1.762114524841309</v>
       </c>
       <c r="F92" t="n">
-        <v>72.81999999999999</v>
+        <v>13.38</v>
       </c>
       <c r="G92" t="n">
-        <v>84.84999999999999</v>
+        <v>14.98</v>
       </c>
       <c r="H92" t="n">
-        <v>407186112</v>
+        <v>34005989</v>
       </c>
       <c r="I92" t="n">
-        <v>1856910000</v>
+        <v>2007000000</v>
       </c>
       <c r="J92" t="n">
-        <v>8738400000</v>
+        <v>12042000000</v>
       </c>
       <c r="K92" t="n">
-        <v>21.0899486541748</v>
+        <v>1.67888605594635</v>
       </c>
       <c r="L92" t="n">
-        <v>140</v>
+        <v>237</v>
       </c>
       <c r="M92" s="2" t="n">
-        <v>45462</v>
+        <v>45309</v>
       </c>
       <c r="N92" s="2" t="n">
-        <v>45393</v>
+        <v>45309</v>
       </c>
       <c r="O92" t="n">
         <v>0</v>
@@ -20482,7 +20482,7 @@
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>半导体</t>
+          <t>环保行业</t>
         </is>
       </c>
     </row>
@@ -20495,43 +20495,43 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>688692</t>
+          <t>301567</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>达梦数据</t>
+          <t>贝隆精密</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.5210673213005066</v>
+        <v>-3.432438850402832</v>
       </c>
       <c r="F93" t="n">
-        <v>335.67</v>
+        <v>39.95</v>
       </c>
       <c r="G93" t="n">
-        <v>400.72</v>
+        <v>49.64</v>
       </c>
       <c r="H93" t="n">
-        <v>261701669</v>
+        <v>27755791</v>
       </c>
       <c r="I93" t="n">
-        <v>5102184000</v>
+        <v>719100000</v>
       </c>
       <c r="J93" t="n">
-        <v>25510920000</v>
+        <v>2876400000</v>
       </c>
       <c r="K93" t="n">
-        <v>5.030421257019043</v>
+        <v>3.778333425521851</v>
       </c>
       <c r="L93" t="n">
-        <v>140</v>
+        <v>239</v>
       </c>
       <c r="M93" s="2" t="n">
-        <v>45462</v>
+        <v>45307</v>
       </c>
       <c r="N93" s="2" t="n">
-        <v>45455</v>
+        <v>45307</v>
       </c>
       <c r="O93" t="n">
         <v>0</v>
@@ -20543,7 +20543,7 @@
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>软件开发</t>
+          <t>消费电子</t>
         </is>
       </c>
     </row>
@@ -20556,43 +20556,43 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>688695</t>
+          <t>001387</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>中创股份</t>
+          <t>雪祺电气</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>-1.477312684059143</v>
+        <v>-6.598984241485596</v>
       </c>
       <c r="F94" t="n">
-        <v>28.01</v>
+        <v>12.88</v>
       </c>
       <c r="G94" t="n">
-        <v>34.12</v>
+        <v>15.17</v>
       </c>
       <c r="H94" t="n">
-        <v>19719727</v>
+        <v>64701390</v>
       </c>
       <c r="I94" t="n">
-        <v>536015073.61</v>
+        <v>572477360</v>
       </c>
       <c r="J94" t="n">
-        <v>2382289097.78</v>
+        <v>2289909440</v>
       </c>
       <c r="K94" t="n">
-        <v>3.601712942123413</v>
+        <v>11.0587215423584</v>
       </c>
       <c r="L94" t="n">
-        <v>140</v>
+        <v>242</v>
       </c>
       <c r="M94" s="2" t="n">
-        <v>45462</v>
+        <v>45302</v>
       </c>
       <c r="N94" s="2" t="n">
-        <v>45364</v>
+        <v>45302</v>
       </c>
       <c r="O94" t="n">
         <v>0</v>
@@ -20604,7 +20604,7 @@
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>软件开发</t>
+          <t>家电行业</t>
         </is>
       </c>
     </row>
@@ -20617,43 +20617,43 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>688709</t>
+          <t>603312</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>成都华微</t>
+          <t>西典新能</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-3.77622389793396</v>
+        <v>-0.7203257083892822</v>
       </c>
       <c r="F95" t="n">
-        <v>27.52</v>
+        <v>31.7</v>
       </c>
       <c r="G95" t="n">
-        <v>34.32</v>
+        <v>35.12</v>
       </c>
       <c r="H95" t="n">
-        <v>203387513</v>
+        <v>19748315</v>
       </c>
       <c r="I95" t="n">
-        <v>2122265729.28</v>
+        <v>1105904015.4</v>
       </c>
       <c r="J95" t="n">
-        <v>17526030100.48</v>
+        <v>5122720000</v>
       </c>
       <c r="K95" t="n">
-        <v>9.256889343261719</v>
+        <v>1.77459728717804</v>
       </c>
       <c r="L95" t="n">
-        <v>140</v>
+        <v>242</v>
       </c>
       <c r="M95" s="2" t="n">
-        <v>45462</v>
+        <v>45302</v>
       </c>
       <c r="N95" s="2" t="n">
-        <v>45329</v>
+        <v>45302</v>
       </c>
       <c r="O95" t="n">
         <v>0</v>
@@ -20665,7 +20665,7 @@
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>半导体</t>
+          <t>电网设备</t>
         </is>
       </c>
     </row>
@@ -20678,43 +20678,43 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>920002</t>
+          <t>603325</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>XD万达轴</t>
+          <t>博隆技术</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>-3.136450529098511</v>
+        <v>4.442896842956543</v>
       </c>
       <c r="F96" t="n">
-        <v>66.09</v>
+        <v>74.98999999999999</v>
       </c>
       <c r="G96" t="n">
-        <v>88.69</v>
+        <v>78.98</v>
       </c>
       <c r="H96" t="n">
-        <v>76820991</v>
+        <v>87512963</v>
       </c>
       <c r="I96" t="n">
-        <v>380017500</v>
+        <v>2099420040</v>
       </c>
       <c r="J96" t="n">
-        <v>2148065110.8</v>
+        <v>4999583300</v>
       </c>
       <c r="K96" t="n">
-        <v>19.24399948120117</v>
+        <v>4.238062381744385</v>
       </c>
       <c r="L96" t="n">
-        <v>140</v>
+        <v>243</v>
       </c>
       <c r="M96" s="2" t="n">
-        <v>45462</v>
+        <v>45301</v>
       </c>
       <c r="N96" s="2" t="n">
-        <v>45442</v>
+        <v>45301</v>
       </c>
       <c r="O96" t="n">
         <v>0</v>
